--- a/usecase_diagram & usecase_description/use_case_description_양현지.xlsx
+++ b/usecase_diagram & usecase_description/use_case_description_양현지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\2023-1\소공\과제2\usecase_diagram &amp; usecase_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B11A0-D514-4435-9100-3D256B9B9A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3BE8E-0DC8-4913-872A-5DC0FF5C6A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>Actor Action</t>
   </si>
@@ -6901,72 +6901,6 @@
         <charset val="129"/>
       </rPr>
       <t>출력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보 선택</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반 회원이 지원 정보를 선택</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7364,6 +7298,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7376,19 +7323,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7621,10 +7555,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" ht="12.5">
       <c r="A4" s="4" t="s">
@@ -7659,10 +7593,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="13">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2" ht="12.5">
       <c r="A10" s="4" t="s">
@@ -7697,10 +7631,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="13">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2" ht="12.5">
       <c r="A16" s="4" t="s">
@@ -7723,10 +7657,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="13">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" ht="12.5">
       <c r="A20" s="4" t="s">
@@ -7749,10 +7683,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="13">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:2" ht="12.5">
       <c r="A24" s="4" t="s">
@@ -7779,10 +7713,10 @@
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" ht="13">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="16"/>
     </row>
     <row r="29" spans="1:2" ht="12.5">
       <c r="A29" s="4" t="s">
@@ -7815,10 +7749,10 @@
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="13">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" ht="12.5">
       <c r="A34" s="4" t="s">
@@ -7835,10 +7769,10 @@
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="13">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2" ht="12.5">
       <c r="A37" s="4" t="s">
@@ -7865,10 +7799,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="16">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" ht="12.5">
       <c r="A41" s="4" t="s">
@@ -7891,10 +7825,10 @@
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" ht="16">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" ht="12.5">
       <c r="A45" s="4" t="s">
@@ -7913,10 +7847,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="16">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" spans="1:2" ht="12.5">
       <c r="A48" s="4" t="s">
@@ -7943,10 +7877,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="16">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="1:2" ht="12.5">
       <c r="A52" s="4" t="s">
@@ -7973,10 +7907,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="13">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" ht="12.5">
       <c r="A56" s="4" t="s">
@@ -7995,10 +7929,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="13">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:2" ht="12.5">
       <c r="A59" s="4" t="s">
@@ -8017,10 +7951,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="13">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="16"/>
     </row>
     <row r="62" spans="1:2" ht="12.5">
       <c r="A62" s="4" t="s">
@@ -8039,10 +7973,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="16">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" ht="12.5">
       <c r="A65" s="4" t="s">
@@ -8062,11 +7996,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A61:B61"/>
@@ -8078,6 +8007,11 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8086,10 +8020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D97-8DD2-4A0D-8A61-4DB45C709AC5}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="65" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8098,258 +8032,225 @@
     <col min="2" max="2" width="83.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="19" thickBot="1">
+      <c r="A1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" thickBot="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.5" thickBot="1">
+    <row r="5" spans="1:4" ht="17" thickBot="1">
       <c r="A5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1">
-      <c r="A7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" thickBot="1">
+      <c r="A7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="17" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="17" thickBot="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" thickBot="1">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" thickBot="1">
+      <c r="A13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" thickBot="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1">
-      <c r="A14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1">
-      <c r="A16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" thickBot="1">
-      <c r="A17" s="16" t="s">
+      <c r="A15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" thickBot="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="19" customHeight="1" thickBot="1">
+      <c r="A17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" thickBot="1">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="21" thickBot="1">
-      <c r="A18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="21" thickBot="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1">
-      <c r="A20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="21" thickBot="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="19" customHeight="1" thickBot="1">
-      <c r="A22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" customHeight="1" thickBot="1">
+      <c r="A21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" thickBot="1">
+      <c r="A22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1">
-      <c r="A23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="21" thickBot="1">
-      <c r="A24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" thickBot="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="17" customHeight="1" thickBot="1">
-      <c r="A26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" thickBot="1">
-      <c r="A27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="17" thickBot="1">
-      <c r="A28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" thickBot="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
